--- a/DataSet/ChangePassword.xlsx
+++ b/DataSet/ChangePassword.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Internal ID</t>
   </si>
@@ -108,24 +108,12 @@
     <t>Change password 2 times</t>
   </si>
   <si>
-    <t>57017</t>
-  </si>
-  <si>
-    <t>Log out on other devices after change password successfully</t>
-  </si>
-  <si>
     <t>56116</t>
   </si>
   <si>
     <t>Incorrect current password</t>
   </si>
   <si>
-    <t>56120</t>
-  </si>
-  <si>
-    <t>Missing required fields</t>
-  </si>
-  <si>
     <t>56130</t>
   </si>
   <si>
@@ -181,6 +169,15 @@
   </si>
   <si>
     <t>sc_qa_auto01_signin@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345679</t>
+  </si>
+  <si>
+    <t>Error Message 1</t>
+  </si>
+  <si>
+    <t>Error Message 2</t>
   </si>
 </sst>
 </file>
@@ -535,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,9 +554,10 @@
     <col min="4" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>5</v>
@@ -590,8 +588,14 @@
       <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -599,31 +603,31 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -637,7 +641,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -651,7 +655,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -665,7 +669,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -679,7 +683,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -693,7 +697,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -707,7 +711,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -721,7 +725,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -729,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -737,7 +741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -745,75 +749,96 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/ChangePassword.xlsx
+++ b/DataSet/ChangePassword.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Internal ID</t>
   </si>
@@ -178,13 +178,25 @@
   </si>
   <si>
     <t>Error Message 2</t>
+  </si>
+  <si>
+    <t>servicecuberp01@gmail.com</t>
+  </si>
+  <si>
+    <t>FS@123456</t>
+  </si>
+  <si>
+    <t>abcdefghi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +237,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -261,7 +279,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -532,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,47 +646,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -697,17 +743,22 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -841,7 +892,13 @@
       <c r="B20" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>